--- a/data/trans_camb/P23_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 12,29</t>
+          <t>0,22; 25,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 5,54</t>
+          <t>-3,22; 10,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,51</t>
+          <t>-6,81; 5,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 5,29</t>
+          <t>-6,85; 7,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,48</t>
+          <t>-9,46; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,01</t>
+          <t>-10,97; 4,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 11,92</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 4,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 3,03</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>-5,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>-17,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-22,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-2,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-17,47%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 138,11</t>
+          <t>-0,89; 441,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 68,37</t>
+          <t>-30,83; 182,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 63,59</t>
+          <t>-53,59; 95,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 47,96</t>
+          <t>-32,89; 63,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 69,36</t>
+          <t>-48,11; 31,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 38,36</t>
+          <t>-56,67; 35,37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 111,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,25; 41,93</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; 28,7</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 4,45</t>
+          <t>-8,96; 8,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 3,75</t>
+          <t>-9,06; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 10,74</t>
+          <t>-13,43; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 10,52</t>
+          <t>-2,5; 13,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,72</t>
+          <t>-7,15; 8,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,61</t>
+          <t>-9,23; 6,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 8,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 7,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 2,99</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>-34,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-12,05%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-23,61%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 42,59</t>
+          <t>-45,72; 76,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,75; 36,13</t>
+          <t>-47,83; 70,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 114,63</t>
+          <t>-67,35; 29,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 107,45</t>
+          <t>-16,2; 144,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 51,74</t>
+          <t>-39,79; 86,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 41,62</t>
+          <t>-53,25; 72,15</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-22,04; 69,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-29,48; 62,1</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-50,68; 24,5</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>31,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,46</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 31,85</t>
+          <t>-7,42; 58,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 36,72</t>
+          <t>2,71; 65,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 20,24</t>
+          <t>-19,92; 14,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 9,62</t>
+          <t>-0,38; 27,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 21,21</t>
+          <t>-6,17; 16,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 22,63</t>
+          <t>-8,46; 11,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 39,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 40,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 9,1</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>189,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>119,87%</t>
+          <t>327,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>175,24%</t>
+          <t>-43,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>337,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>104,95%</t>
+          <t>132,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>227,6%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>279,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-18,42%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 841,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 888,02</t>
+          <t>-24,75; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1024,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,28; 528,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 393,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 450,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 1615,68</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 1751,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 679,46</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,87</t>
+          <t>0,14; 16,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,66</t>
+          <t>-1,64; 12,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,47</t>
+          <t>-8,74; 1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,54</t>
+          <t>-1,93; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,4</t>
+          <t>-5,52; 3,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,85</t>
+          <t>-7,12; 3,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 9,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 6,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 0,79</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>-24,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 70,06</t>
+          <t>-4,57; 159,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 55,16</t>
+          <t>-12,85; 122,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 70,57</t>
+          <t>-57,65; 18,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 51,79</t>
+          <t>-10,53; 71,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 60,01</t>
+          <t>-32,89; 32,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 35,15</t>
+          <t>-43,61; 26,73</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 82,31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 53,15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-41,75; 7,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
